--- a/FINAL ML/SUPERVISED LEARNING/lasso.xlsx
+++ b/FINAL ML/SUPERVISED LEARNING/lasso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglingxi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuyt\Documents\GitHub\Anti-Corruption\FINAL ML\SUPERVISED LEARNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C982734-225B-634C-AF9B-0DD3EB5E7953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97070491-CC16-4B4B-B29B-D0ABEB694E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1040" windowWidth="28040" windowHeight="15740" xr2:uid="{6B611699-080B-F043-987D-B41F4D59541E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B611699-080B-F043-987D-B41F4D59541E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$T$1:$T$31</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -859,16 +858,16 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -880,2272 +879,2277 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>-0.70189500000000005</v>
       </c>
       <c r="D2" s="2">
         <f>EXP(C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <v>0.4956451657029019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>-0.52516099999999999</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D66" si="0">EXP(C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C3)</f>
+        <v>0.59146013161959388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>-0.494174</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C4)</f>
+        <v>0.610074620870803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>0.64729599999999998</v>
+        <v>-0.34131800000000001</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9103682031540923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C5)</f>
+        <v>0.71083282742234999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>-0.32355200000000001</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C6)</f>
+        <v>0.7235743310788767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>-0.27815200000000001</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C7)</f>
+        <v>0.75718172114531501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>-0.27748200000000001</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C8)</f>
+        <v>0.75768920288588137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>-0.27254400000000001</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C9)</f>
+        <v>0.761439925081417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>-0.25397700000000001</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C10)</f>
+        <v>0.7757096431630951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.18163799999999999</v>
+        <v>-0.24921499999999999</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.83390315872678411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C11)</f>
+        <v>0.77941238170717364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>-0.24226800000000001</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C12)</f>
+        <v>0.78484581068666459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>-0.24073</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C13)</f>
+        <v>0.78605383227397574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>-0.23777699999999999</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C14)</f>
+        <v>0.7883784798936071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>-0.23308899999999999</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C15)</f>
+        <v>0.7920830749935015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>-0.20707600000000001</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C16)</f>
+        <v>0.81295786284211324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>-0.19677500000000001</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C17)</f>
+        <v>0.82137542199310021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>-0.18917</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C18)</f>
+        <v>0.8276457949494328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>-0.18163799999999999</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C19)</f>
+        <v>0.83390315872678411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>-0.171209</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C20)</f>
+        <v>0.84264544216912662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
-        <v>0.175152</v>
+        <v>-0.16786899999999999</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1914272997992568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C21)</f>
+        <v>0.84546458329087781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>-0.15406800000000001</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C22)</f>
+        <v>0.85721372849599664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.34131800000000001</v>
+        <v>-0.12718699999999999</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.71083282742234999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C23)</f>
+        <v>0.88056899079860929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>-0.100089</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C24)</f>
+        <v>0.90475689108925661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>-8.8858000000000006E-2</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C25)</f>
+        <v>0.91497549086980923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>-8.6162000000000002E-2</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C26)</f>
+        <v>0.91744559299471462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.27748200000000001</v>
+        <v>-8.0378000000000005E-2</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.75768920288588137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C27)</f>
+        <v>0.92276747434867079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>-6.4797999999999994E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C28)</f>
+        <v>0.93725677012434339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
+        <v>-4.7982999999999998E-2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C29)</f>
+        <v>0.95314999048961369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>-3.9176000000000002E-2</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C30)</f>
+        <v>0.96158145591627808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>-3.9139E-2</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C31)</f>
+        <v>0.96161703508835761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>-3.3903999999999997E-2</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C32)</f>
+        <v>0.96666429995605585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.70189500000000005</v>
+        <v>-3.2024999999999998E-2</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4956451657029019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C33)</f>
+        <v>0.96848236971730139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
-        <v>0.62362700000000004</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8656826158693367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.23308899999999999</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>0.7920830749935015</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2">
-        <v>1.303142</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6808437286822957</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C55" s="2">
-        <v>0.82913800000000004</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2913427512836799</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2">
-        <v>0.19652900000000001</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2171706183143098</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C60" s="2">
-        <v>2.8854000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0292743094554109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C62)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
-        <v>0.22814799999999999</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:D130" si="1">EXP(C67)</f>
-        <v>1.2562712398178333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C68" s="2">
-        <v>-3.3903999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96666429995605585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2">
-        <v>-0.32355200000000001</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7235743310788767</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2">
-        <v>-0.494174</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="1"/>
-        <v>0.610074620870803</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2">
-        <v>-0.16786899999999999</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="1"/>
-        <v>0.84546458329087781</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2">
-        <v>0.15695500000000001</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1699429652828908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2">
-        <v>-0.24921499999999999</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="1"/>
-        <v>0.77941238170717364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2">
-        <v>0.104892</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="1"/>
-        <v>1.110590660087218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.24226800000000001</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="1"/>
-        <v>0.78484581068666459</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2">
-        <v>-3.9176000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96158145591627808</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2">
-        <v>0.185308</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2035890884841716</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2">
-        <v>0.329737</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3906023519477144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2">
-        <v>4.6810000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0046919729953494</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.23777699999999999</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7883784798936071</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C90)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C91)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2">
-        <v>-3.2024999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96848236971730139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C93)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2">
-        <v>0.34229399999999999</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="1"/>
-        <v>1.408174239888119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C95)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2">
-        <v>1.5383000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="1"/>
-        <v>1.015501927381933</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C96)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C98)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2">
-        <v>-0.12718699999999999</v>
+        <v>0</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88056899079860929</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C99)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2">
-        <v>0.26335999999999998</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3012951008742344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C100)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.27254400000000001</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="1"/>
-        <v>0.761439925081417</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C101)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2">
-        <v>0.32161499999999998</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3793536225720904</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C102)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.18917</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8276457949494328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C103)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2">
-        <v>-0.171209</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="1"/>
-        <v>0.84264544216912662</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C104)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C105)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2">
-        <v>9.7730999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1026661280214807</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C106)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2">
-        <v>0.51318900000000001</v>
+        <v>0</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6706102853484108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C107)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2">
-        <v>0.301838</v>
+        <v>0</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3523421295381053</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C108)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2">
-        <v>0.10245899999999999</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1078918774116349</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C109)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2">
-        <v>-8.8858000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="1"/>
-        <v>0.91497549086980923</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C110)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2">
-        <v>-4.7982999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95314999048961369</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C111)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C112)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C113)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C114)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2">
-        <v>0.201935</v>
+        <v>0</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2237684605761538</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C115)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C116)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C117" s="2">
-        <v>-3.9139E-2</v>
+        <v>0</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="1"/>
-        <v>0.96161703508835761</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C117)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C118)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C119)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.20707600000000001</v>
+        <v>0</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="1"/>
-        <v>0.81295786284211324</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C120)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C121)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C122)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.25397700000000001</v>
+        <v>4.6810000000000003E-3</v>
       </c>
       <c r="D123" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7757096431630951</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C123)</f>
+        <v>1.0046919729953494</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2">
-        <v>5.5745000000000003E-2</v>
+        <v>1.4343E-2</v>
       </c>
       <c r="D124" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0573280307094806</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C124)</f>
+        <v>1.014446354370564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2">
-        <v>-0.24073</v>
+        <v>1.5383000000000001E-2</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" si="1"/>
-        <v>0.78605383227397574</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C125)</f>
+        <v>1.015501927381933</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
-        <v>0</v>
+        <v>1.9560999999999999E-2</v>
       </c>
       <c r="D126" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C126)</f>
+        <v>1.0197535699312112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2">
-        <v>0.45383400000000002</v>
+        <v>2.8854000000000001E-2</v>
       </c>
       <c r="D127" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5743366359010487</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C127)</f>
+        <v>1.0292743094554109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2">
-        <v>1.4343E-2</v>
+        <v>4.0031999999999998E-2</v>
       </c>
       <c r="D128" s="2">
-        <f t="shared" si="1"/>
-        <v>1.014446354370564</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C128)</f>
+        <v>1.0408440806700632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2">
-        <v>0</v>
+        <v>4.1618000000000002E-2</v>
       </c>
       <c r="D129" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C129)</f>
+        <v>1.0424961691418593</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2">
-        <v>-0.19677500000000001</v>
+        <v>5.5745000000000003E-2</v>
       </c>
       <c r="D130" s="2">
-        <f t="shared" si="1"/>
-        <v>0.82137542199310021</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C130)</f>
+        <v>1.0573280307094806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C131" s="2">
-        <v>-6.4797999999999994E-2</v>
+        <v>7.7016000000000001E-2</v>
       </c>
       <c r="D131" s="2">
-        <f t="shared" ref="D131:D152" si="2">EXP(C131)</f>
-        <v>0.93725677012434339</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C131)</f>
+        <v>1.0800593572040686</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C132" s="2">
-        <v>0</v>
+        <v>9.7730999999999998E-2</v>
       </c>
       <c r="D132" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C132)</f>
+        <v>1.1026661280214807</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2">
-        <v>7.7016000000000001E-2</v>
+        <v>0.10245899999999999</v>
       </c>
       <c r="D133" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0800593572040686</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C133)</f>
+        <v>1.1078918774116349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C134" s="2">
-        <v>0</v>
+        <v>0.104892</v>
       </c>
       <c r="D134" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C134)</f>
+        <v>1.110590660087218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2">
-        <v>0</v>
+        <v>0.107474</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C135)</f>
+        <v>1.1134619103605135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2">
-        <v>-0.27815200000000001</v>
+        <v>0.15695500000000001</v>
       </c>
       <c r="D136" s="2">
-        <f t="shared" si="2"/>
-        <v>0.75718172114531501</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C136)</f>
+        <v>1.1699429652828908</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C137" s="2">
-        <v>4.0031999999999998E-2</v>
+        <v>0.175152</v>
       </c>
       <c r="D137" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0408440806700632</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C137)</f>
+        <v>1.1914272997992568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C138" s="2">
-        <v>-0.100089</v>
+        <v>0.185308</v>
       </c>
       <c r="D138" s="2">
-        <f t="shared" si="2"/>
-        <v>0.90475689108925661</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C138)</f>
+        <v>1.2035890884841716</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2">
-        <v>-0.52516099999999999</v>
+        <v>0.19652900000000001</v>
       </c>
       <c r="D139" s="2">
-        <f t="shared" si="2"/>
-        <v>0.59146013161959388</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C139)</f>
+        <v>1.2171706183143098</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2">
-        <v>0</v>
+        <v>0.201935</v>
       </c>
       <c r="D140" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C140)</f>
+        <v>1.2237684605761538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="C141" s="2">
-        <v>0</v>
+        <v>0.22814799999999999</v>
       </c>
       <c r="D141" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C141)</f>
+        <v>1.2562712398178333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="C142" s="2">
-        <v>0</v>
+        <v>0.26335999999999998</v>
       </c>
       <c r="D142" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C142)</f>
+        <v>1.3012951008742344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C143" s="2">
-        <v>0</v>
+        <v>0.301838</v>
       </c>
       <c r="D143" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C143)</f>
+        <v>1.3523421295381053</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C144" s="2">
-        <v>1.9560999999999999E-2</v>
+        <v>0.32161499999999998</v>
       </c>
       <c r="D144" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0197535699312112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C144)</f>
+        <v>1.3793536225720904</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2">
-        <v>0.107474</v>
+        <v>0.329737</v>
       </c>
       <c r="D145" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1134619103605135</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C145)</f>
+        <v>1.3906023519477144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C146" s="2">
-        <v>4.1618000000000002E-2</v>
+        <v>0.34229399999999999</v>
       </c>
       <c r="D146" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0424961691418593</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C146)</f>
+        <v>1.408174239888119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2">
-        <v>0</v>
+        <v>0.45383400000000002</v>
       </c>
       <c r="D147" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C147)</f>
+        <v>1.5743366359010487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="C148" s="2">
-        <v>0</v>
+        <v>0.51318900000000001</v>
       </c>
       <c r="D148" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C148)</f>
+        <v>1.6706102853484108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C149" s="2">
-        <v>-8.0378000000000005E-2</v>
+        <v>0.62362700000000004</v>
       </c>
       <c r="D149" s="2">
-        <f t="shared" si="2"/>
-        <v>0.92276747434867079</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C149)</f>
+        <v>1.8656826158693367</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C150" s="2">
-        <v>0</v>
+        <v>0.64729599999999998</v>
       </c>
       <c r="D150" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C150)</f>
+        <v>1.9103682031540923</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C151" s="2">
-        <v>-8.6162000000000002E-2</v>
+        <v>0.82913800000000004</v>
       </c>
       <c r="D151" s="2">
-        <f t="shared" si="2"/>
-        <v>0.91744559299471462</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <f>EXP(C151)</f>
+        <v>2.2913427512836799</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2">
-        <v>-0.15406800000000001</v>
+        <v>1.303142</v>
       </c>
       <c r="D152" s="2">
-        <f t="shared" si="2"/>
-        <v>0.85721372849599664</v>
+        <f>EXP(C152)</f>
+        <v>3.6808437286822957</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D1" xr:uid="{FF5CD329-5F6A-49B1-A8F1-EDB64F84CB07}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D152">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3158,9 +3162,9 @@
       <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3172,7 +3176,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -3382,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>32</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>34</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>35</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>36</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>37</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>38</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>39</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>41</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44</v>
       </c>
@@ -3690,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>45</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>46</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>47</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>48</v>
       </c>
@@ -3746,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>51</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>52</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>54</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>55</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>57</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>59</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>60</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>61</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>62</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>63</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>68</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>69</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>70</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>71</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>80</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>83</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>84</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>85</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>86</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>89</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>91</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>93</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>95</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>96</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>103</v>
       </c>
@@ -4138,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>110</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>111</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>112</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>114</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>116</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>117</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>119</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>120</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>124</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>127</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>130</v>
       </c>
@@ -4292,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>132</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>133</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>138</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>139</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>140</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>141</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>145</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>146</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>148</v>
       </c>
@@ -4431,9 +4435,9 @@
       <selection sqref="A1:D1048457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4445,7 +4449,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>0.83390315872678411</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>0.71083282742234999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>0.75768920288588137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -4501,7 +4505,7 @@
         <v>0.4956451657029019</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>42</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>0.7920830749935015</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>66</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>0.96666429995605585</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>67</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>0.7235743310788767</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>72</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>0.610074620870803</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>73</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>0.84546458329087781</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>75</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>0.77941238170717364</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>78</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>0.78484581068666459</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>79</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>0.96158145591627808</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>88</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>0.7883784798936071</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>90</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>0.96848236971730139</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>97</v>
       </c>
@@ -4655,7 +4659,7 @@
         <v>0.88056899079860929</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>99</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>0.761439925081417</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>101</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>0.8276457949494328</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>102</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>0.84264544216912662</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>108</v>
       </c>
@@ -4711,7 +4715,7 @@
         <v>0.91497549086980923</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>109</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>0.95314999048961369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>115</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>0.96161703508835761</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>118</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>0.81295786284211324</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>121</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>0.7757096431630951</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>123</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>0.78605383227397574</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>128</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>0.82137542199310021</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>129</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>0.93725677012434339</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>134</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>0.75718172114531501</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>136</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>0.90475689108925661</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>137</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>0.59146013161959388</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>147</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>0.92276747434867079</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>149</v>
       </c>
@@ -4879,7 +4883,7 @@
         <v>0.91744559299471462</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>150</v>
       </c>
@@ -4906,13 +4910,13 @@
       <selection activeCell="Q1" sqref="Q1:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="18" max="18" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4953,7 +4957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>3.6808437286822957</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>2.2913427512836799</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -5103,7 +5107,7 @@
         <v>1.9103682031540923</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>49</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>1.8656826158693367</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>53</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>1.3906023519477144</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>56</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>1.2562712398178333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>58</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>1.2171706183143098</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>65</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>1.2035890884841716</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>1.1914272997992568</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>77</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>1.1699429652828908</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>81</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>1.110590660087218</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>82</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>1.0292743094554109</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>87</v>
       </c>
@@ -5591,7 +5595,7 @@
         <v>1.0424961691418593</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>92</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>1.0408440806700632</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>94</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>1.0197535699312112</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>98</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>1.015501927381933</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>100</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>1.014446354370564</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>104</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>1.0046919729953494</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>105</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>1.6706102853484108</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>106</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>1.3523421295381053</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>107</v>
       </c>
@@ -5823,7 +5827,7 @@
         <v>1.1078918774116349</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>113</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>1.2237684605761538</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>122</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>1.0573280307094806</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>125</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>1.5743366359010487</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>126</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>1.014446354370564</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>131</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>1.0800593572040686</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>135</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>1.0408440806700632</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>142</v>
       </c>
@@ -5921,7 +5925,7 @@
         <v>1.0197535699312112</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>143</v>
       </c>
@@ -5935,7 +5939,7 @@
         <v>1.1134619103605135</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>144</v>
       </c>
